--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/10/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.14769999999998</v>
+        <v>-20.71609999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.49049999999999</v>
+        <v>-19.51419999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.44250000000001</v>
+        <v>-12.71690000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.53029999999999</v>
+        <v>-14.37619999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.00010000000001</v>
+        <v>-22.09940000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.3592</v>
+        <v>16.4022</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.2929</v>
+        <v>16.39129999999999</v>
       </c>
     </row>
     <row r="20">
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.18800000000001</v>
+        <v>-12.2595</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.67020000000001</v>
+        <v>-12.45070000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.73130000000001</v>
+        <v>-12.4798</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.15999999999999</v>
+        <v>-21.91189999999998</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.23409999999998</v>
+        <v>-21.35589999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.15839999999999</v>
+        <v>-21.2521</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.42750000000001</v>
+        <v>-11.48780000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.0648</v>
+        <v>15.92490000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.9918</v>
+        <v>-20.07539999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.17509999999999</v>
+        <v>-13.25649999999998</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.38199999999999</v>
+        <v>-13.67909999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.01430000000001</v>
+        <v>17.17279999999998</v>
       </c>
     </row>
     <row r="47">
@@ -1284,13 +1284,13 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.96549999999998</v>
+        <v>-14.17239999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.44669999999999</v>
+        <v>16.46079999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.4819</v>
+        <v>-11.8827</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.206</v>
+        <v>-22.28430000000001</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.36590000000001</v>
+        <v>-22.36260000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-22.1402</v>
+        <v>-21.99609999999999</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-12.8852</v>
+        <v>-12.306</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.87500000000001</v>
+        <v>-10.80490000000001</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.64590000000001</v>
+        <v>-11.45060000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.61099999999999</v>
+        <v>-13.5545</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.27360000000001</v>
+        <v>-11.28360000000001</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.20440000000002</v>
+        <v>18.23010000000001</v>
       </c>
     </row>
     <row r="96">
@@ -2083,13 +2083,13 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.74180000000001</v>
+        <v>-11.10760000000001</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.5817</v>
+        <v>16.7204</v>
       </c>
     </row>
     <row r="98">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.0284</v>
+        <v>-22.03319999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
